--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1924971.399645054</v>
+        <v>2034783.363529159</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.44564101</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916853</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5603330.275157845</v>
+        <v>5908647.739346817</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>247.3544796379196</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>305.08169294201</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>107.4582301070936</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.25395846644548</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>317.2778751268595</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>71.41597068246178</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1063,13 +1065,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>43.43938865740975</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1114,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.30183002560058</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,13 +1135,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>38.93543498755517</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>45.10878876340973</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>49.17722654850316</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>23.27708121189633</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>83.23869508311037</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527466</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>27.33721772847669</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1619,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>377.900213487584</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1847,7 +1849,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>52.51170991984772</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2621,7 +2623,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>129.5445345985665</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3661,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>56.95997704284446</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800608</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>352.7475559495193</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>122.9742767430648</v>
       </c>
       <c r="T43" t="n">
-        <v>208.2631588479963</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884115</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,10 +4033,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>32.41844313518986</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4135,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>165.6875758814579</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1350.843827503015</v>
+        <v>1343.515716940192</v>
       </c>
       <c r="C2" t="n">
-        <v>922.2621532402836</v>
+        <v>914.93404267746</v>
       </c>
       <c r="D2" t="n">
-        <v>890.3927724551322</v>
+        <v>486.3523684147282</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4331,22 +4333,22 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>1373.102993947519</v>
+        <v>1593.368726675464</v>
       </c>
     </row>
     <row r="3">
@@ -4386,19 +4388,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>244.4482489030505</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4410,25 +4412,25 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1644.724363562988</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>940.4401176967148</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>369.2929473250434</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,16 +4491,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>726.9120049407049</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
         <v>1349.676536110076</v>
@@ -4522,16 +4524,16 @@
         <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>992.2117929153466</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>992.2117929153466</v>
+        <v>596.7126180109351</v>
       </c>
       <c r="X4" t="n">
-        <v>992.2117929153466</v>
+        <v>596.7126180109351</v>
       </c>
       <c r="Y4" t="n">
-        <v>940.4401176967148</v>
+        <v>369.2929473250434</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.2911052642175</v>
+        <v>1267.07612131935</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1890364880448</v>
+        <v>1232.974052543177</v>
       </c>
       <c r="D5" t="n">
-        <v>489.3196557028934</v>
+        <v>912.4913503948342</v>
       </c>
       <c r="E5" t="n">
-        <v>459.5853149015927</v>
+        <v>478.7166055531294</v>
       </c>
       <c r="F5" t="n">
-        <v>435.7582893512044</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>50.84917596233712</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087175</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717425</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762205</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720799</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="W5" t="n">
-        <v>1404.978858829757</v>
+        <v>2116.763874884889</v>
       </c>
       <c r="X5" t="n">
-        <v>1389.876799449472</v>
+        <v>1697.6214114642</v>
       </c>
       <c r="Y5" t="n">
-        <v>981.5906757491254</v>
+        <v>1289.335287763854</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="M6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="N6" t="n">
-        <v>804.6185656731816</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="O6" t="n">
-        <v>804.6185656731816</v>
+        <v>700.5968437947141</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1324.697627839493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>840.2707712266404</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>667.7090597098653</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>501.831066911388</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>332.0730631621253</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1143.991608255756</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1586.250411413401</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609524</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179228</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2340.960139477225</v>
       </c>
       <c r="T7" t="n">
-        <v>1537.942061378414</v>
+        <v>2095.08069305568</v>
       </c>
       <c r="U7" t="n">
-        <v>1259.509060631519</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.509060631519</v>
+        <v>1816.647692308785</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.509060631519</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1259.509060631519</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
-        <v>1032.089389945628</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.392307797067</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>1179.522927011916</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>750.9412527491843</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O9" t="n">
-        <v>804.6185656731816</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>286.0179953808982</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>286.0179953808982</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>286.0179953808982</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>286.0179953808982</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>262.5057921365585</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>689.2685070454004</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W10" t="n">
-        <v>705.2562847857771</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>705.2562847857771</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y10" t="n">
-        <v>477.8366140998854</v>
+        <v>1182.133343351119</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2148.297048386133</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2064.217558403193</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1628.307773577638</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1194.533028735933</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>766.6655991451407</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G11" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004238</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>1320.714971542188</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>1320.714971542188</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M11" t="n">
-        <v>1320.714971542188</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035995</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869392</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827986</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3402.025205992077</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2982.882742571388</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2574.596618871041</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>985.4377700742396</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>812.8760585574645</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>646.9980657589872</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>646.9980657589872</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y13" t="n">
-        <v>1177.256388793227</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1812.24883465911</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1374.106361842533</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>938.1965770169779</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>504.4218321752731</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>76.55440258448085</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>76.55440258448085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>76.55440258448085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>910.4879051697988</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L14" t="n">
-        <v>1852.690868663607</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M14" t="n">
-        <v>2794.893832157415</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N14" t="n">
-        <v>3737.096795651223</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O14" t="n">
-        <v>3737.096795651223</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P14" t="n">
-        <v>3737.096795651223</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q14" t="n">
-        <v>3737.096795651223</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3039.408255925903</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2620.265792505214</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2238.548405144018</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.558054071736</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>380.3945678471333</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>380.3945678471333</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1455.454534099993</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2612.502369310544</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>560.572149076143</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>383.8650950378992</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5680,43 +5682,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5978,10 +5980,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6020,16 +6022,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6224,49 +6226,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3304.552472135279</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>4284.732138705585</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
         <v>2955.199618136696</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6473,10 +6475,10 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135278</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>426.819165236992</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>426.819165236992</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>426.819165236992</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>426.819165236992</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>885.0724125931612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1249.452742828923</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6917,13 +6919,13 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
@@ -6935,31 +6937,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7181,43 +7183,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>754.2193473420839</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1585.355644760024</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1585.355644760024</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1149.445859934469</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1149.445859934469</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>721.5784303436767</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>365.2677677684046</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1286.300469346937</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>1286.300469346937</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>2443.348304557488</v>
       </c>
       <c r="N41" t="n">
-        <v>1345.742592622717</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="O41" t="n">
-        <v>2287.945556116525</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>3116.255430949921</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>3662.754216908516</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
-        <v>3243.939256954935</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>3243.939256954935</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W41" t="n">
-        <v>2839.083802365968</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
-        <v>2419.941338945279</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y41" t="n">
-        <v>2011.655215244932</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1066.535824598177</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>893.9741130814024</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>728.0961202829251</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>558.3381165336624</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>381.6310624954186</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>216.0397875212463</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066122</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745733</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955486</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113131</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338912</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309254</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173586</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173586</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="T43" t="n">
-        <v>2323.189027293229</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U43" t="n">
-        <v>2044.756026546334</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V43" t="n">
-        <v>1757.800518416765</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1485.774114003056</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1485.774114003056</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1258.354443317165</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1811.83204528625</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>1373.689572469674</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>937.779787644118</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>504.0050428024131</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>76.13761321162085</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162085</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N44" t="n">
-        <v>2262.917935035995</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>4552.836435941489</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869391</v>
+        <v>4552.836435941489</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827985</v>
+        <v>5099.335221900084</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581042</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>3723.228786764879</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>3503.161559637918</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>3470.41565748116</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3470.41565748116</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3065.560202892194</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>2646.417739471505</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2238.131615771158</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029136</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.8528970395559</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720784</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964014</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469414</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645759</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.099038503456</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826767</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1010.09307575615</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>842.7318879971016</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>676.8538951986243</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>507.0958914493616</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>330.3888374111178</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369455</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162085</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.379401819793</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2512.138033117789</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2512.138033117789</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2233.705032370895</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1946.749524241325</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1674.723119827617</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1429.331365161029</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1201.911694475137</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7981,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,19 +8139,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.5472142772251</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671639</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,10 +8470,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8616,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>817.4976473511605</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.7201651452606</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>70.4887524543642</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>280.943159168034</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9474,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9659,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>866.2895820207518</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10121,13 +10123,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,10 +10357,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10367,10 +10369,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10902,13 +10904,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11060,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820602</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>145.5822663358854</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,25 +11302,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.439739811392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>350.5223530053005</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>197.8082562505561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.30304897575911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>111.4236523045829</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>34.67467827192601</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>113.8761173587629</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>44.63629711344942</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>34.67467827191847</v>
       </c>
       <c r="T43" t="n">
-        <v>35.15749310933299</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,10 +25921,10 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>224.2116365209634</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>5.148518520149366</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493657.4912855122</v>
+        <v>502112.3729010291</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>493657.4912855122</v>
+        <v>503634.692931646</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>416200.7462055141</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>416200.7462055142</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514755.8788390234</v>
+        <v>514755.8788390235</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>416200.7462055142</v>
+        <v>514755.8788390235</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>416200.7462055141</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041075</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041074</v>
       </c>
-      <c r="C2" t="n">
-        <v>469128.9049041075</v>
-      </c>
       <c r="D2" t="n">
-        <v>469128.9049041075</v>
+        <v>469128.9049041074</v>
       </c>
       <c r="E2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201834</v>
       </c>
       <c r="F2" t="n">
-        <v>372737.2772060219</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
+        <v>461000.3861201835</v>
+      </c>
+      <c r="H2" t="n">
         <v>461000.3861201834</v>
-      </c>
-      <c r="H2" t="n">
-        <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
@@ -26350,10 +26352,10 @@
         <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
-        <v>372737.2772060218</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="P2" t="n">
-        <v>372737.2772060218</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501632</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998265</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877264</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622216</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>154981.0317940153</v>
       </c>
       <c r="D4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>44115.42103448478</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="F4" t="n">
-        <v>44115.42103448479</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="G4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="I4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.8251096227</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="M4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>54561.82510962272</v>
+      </c>
+      <c r="O4" t="n">
+        <v>54561.82510962278</v>
+      </c>
+      <c r="P4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="M4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54561.82510962276</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44115.42103448478</v>
-      </c>
-      <c r="P4" t="n">
-        <v>44115.42103448477</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083184</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73816.13645601069</v>
+        <v>73816.1364560108</v>
       </c>
       <c r="C6" t="n">
-        <v>216007.4371157208</v>
+        <v>175603.8914070731</v>
       </c>
       <c r="D6" t="n">
-        <v>216007.4371157207</v>
+        <v>235378.590546578</v>
       </c>
       <c r="E6" t="n">
-        <v>113279.9752086013</v>
+        <v>146365.2131837184</v>
       </c>
       <c r="F6" t="n">
-        <v>270757.2701307053</v>
+        <v>328720.322404768</v>
       </c>
       <c r="G6" t="n">
-        <v>239220.513798399</v>
+        <v>328720.3224047682</v>
       </c>
       <c r="H6" t="n">
         <v>328720.3224047681</v>
@@ -26543,25 +26545,25 @@
         <v>328720.3224047681</v>
       </c>
       <c r="J6" t="n">
-        <v>217705.8570597778</v>
+        <v>217705.8570597779</v>
       </c>
       <c r="K6" t="n">
+        <v>275674.4677659955</v>
+      </c>
+      <c r="L6" t="n">
+        <v>319328.0206781459</v>
+      </c>
+      <c r="M6" t="n">
+        <v>176520.1514667805</v>
+      </c>
+      <c r="N6" t="n">
         <v>328720.3224047681</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>328720.3224047682</v>
+      </c>
+      <c r="P6" t="n">
         <v>328720.3224047681</v>
-      </c>
-      <c r="M6" t="n">
-        <v>197284.0752473485</v>
-      </c>
-      <c r="N6" t="n">
-        <v>328720.322404768</v>
-      </c>
-      <c r="O6" t="n">
-        <v>270757.2701307052</v>
-      </c>
-      <c r="P6" t="n">
-        <v>270757.2701307052</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452606</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939301</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.745296776888</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939301</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.745296776888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483597</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939301</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.745296776888</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>174.6820951421391</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27445,7 +27447,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>99.12156952133313</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>161.8479102624778</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>173.8915155125873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>114.2728118504404</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,10 +27678,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>329.3909293606152</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>131.5005948404516</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27836,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>247.0043103439708</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>394.8256131008558</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27916,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>369.8422500230727</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>140.7232059832941</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>151.662902285965</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -29341,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -34699,13 +34701,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,10 +34716,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>52.98895607821123</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,19 +34859,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>205.1467494379689</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>57.99715944515106</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>72.805895586112</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684642</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="P6" t="n">
-        <v>358.9284720888814</v>
+        <v>630.404832368464</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>274.5472142772251</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>317.1830304671639</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P9" t="n">
-        <v>358.9284720888814</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.9562613211783</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>817.4976473511605</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.7201651452608</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>951.7201651452606</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452606</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>70.4887524543642</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35741,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>280.943159168034</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35905,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>350.8506558504741</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36379,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>866.2895820207518</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36841,13 +36843,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1207.52018712909</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>756.3484258820602</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>951.7201651452606</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>145.5822663358854</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37938,10 +37940,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961037</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>926.439739811392</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2034783.363529159</v>
+        <v>2034258.181160126</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916853</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247.3544796379196</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>354.5609884282722</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8962702296824</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>107.4582301070936</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>317.2778751268595</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>40.49755457282051</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1065,10 +1065,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1113,13 +1113,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>22.30183002560058</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>71.92656253163935</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1198,7 +1198,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340973</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.17722654850316</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864845</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1536,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>43.70143389869557</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>131.9969996527466</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629701</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>18.05677735225751</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800603</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226156</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>73.01514676193472</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>56.95997704284446</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800608</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>122.9742767430648</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884115</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>24.62703520776638</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436949</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1343.515716940192</v>
+        <v>1175.471904237179</v>
       </c>
       <c r="C2" t="n">
-        <v>914.93404267746</v>
+        <v>1141.369835461006</v>
       </c>
       <c r="D2" t="n">
-        <v>486.3523684147282</v>
+        <v>1109.500454675855</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4336,19 +4336,19 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="M2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="N2" t="n">
         <v>1107.976466382457</v>
       </c>
-      <c r="M2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1528.02936532736</v>
-      </c>
       <c r="O2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>1613.531556264254</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>1613.531556264254</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>1612.716505715692</v>
+        <v>1217.07884972191</v>
       </c>
       <c r="X2" t="n">
-        <v>1597.614446335406</v>
+        <v>1201.976790341625</v>
       </c>
       <c r="Y2" t="n">
-        <v>1593.368726675464</v>
+        <v>1197.731070681682</v>
       </c>
     </row>
     <row r="3">
@@ -4388,19 +4388,19 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030505</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
         <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4415,22 +4415,22 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1644.724363562988</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.2929473250434</v>
+        <v>512.2855472264862</v>
       </c>
       <c r="C4" t="n">
-        <v>369.2929473250434</v>
+        <v>339.7238357097111</v>
       </c>
       <c r="D4" t="n">
-        <v>369.2929473250434</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4494,16 +4494,16 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W4" t="n">
-        <v>596.7126180109351</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X4" t="n">
-        <v>596.7126180109351</v>
+        <v>927.4792282453905</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.2929473250434</v>
+        <v>700.0595575594987</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.07612131935</v>
+        <v>459.5121464321336</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.974052543177</v>
+        <v>425.410077655961</v>
       </c>
       <c r="D5" t="n">
-        <v>912.4913503948342</v>
+        <v>393.5406968708096</v>
       </c>
       <c r="E5" t="n">
-        <v>478.7166055531294</v>
+        <v>363.8063560695088</v>
       </c>
       <c r="F5" t="n">
-        <v>50.84917596233712</v>
+        <v>339.9793305191206</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233712</v>
+        <v>339.9793305191206</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233712</v>
+        <v>50.84917596233689</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>485.6870740423948</v>
       </c>
       <c r="K5" t="n">
-        <v>1109.787858087175</v>
+        <v>1109.787858087171</v>
       </c>
       <c r="L5" t="n">
-        <v>1181.865694717425</v>
+        <v>1109.787858087171</v>
       </c>
       <c r="M5" t="n">
-        <v>1181.865694717425</v>
+        <v>1109.787858087171</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717425</v>
+        <v>1109.787858087171</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717425</v>
+        <v>1733.888642131948</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762205</v>
+        <v>1805.966478762193</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720799</v>
+        <v>2352.465264720788</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473856</v>
+        <v>2480.712708693218</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473856</v>
+        <v>2480.712708693218</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473856</v>
+        <v>2118.095758627044</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.763874884889</v>
+        <v>1713.240304038077</v>
       </c>
       <c r="X5" t="n">
-        <v>1697.6214114642</v>
+        <v>1294.097840617388</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.335287763854</v>
+        <v>885.8117169170414</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639652</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909189</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070805</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326466</v>
+        <v>92.16803877326441</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993473</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993473</v>
+        <v>401.0543847161468</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993473</v>
+        <v>1025.155168760923</v>
       </c>
       <c r="L6" t="n">
-        <v>76.49605974993473</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>76.49605974993473</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>76.49605974993473</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>700.5968437947141</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1324.697627839493</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201359</v>
+        <v>787.1922181889422</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845835</v>
+        <v>614.6305066721671</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>448.7525138736898</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>278.9945101244271</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>139.0923358148016</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947713</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606125</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285735</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255756</v>
+        <v>1202.884590109486</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413401</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2064.812642492912</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609524</v>
+        <v>2412.319536463254</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473856</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179228</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477225</v>
+        <v>2362.377960771841</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.08069305568</v>
+        <v>2116.498514350296</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308785</v>
+        <v>1838.065513603402</v>
       </c>
       <c r="V7" t="n">
-        <v>1816.647692308785</v>
+        <v>1551.110005473832</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1279.083601060124</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606238</v>
+        <v>1206.430507593821</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>979.0108369079294</v>
       </c>
     </row>
     <row r="8">
@@ -4789,43 +4789,43 @@
         <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4877,28 +4877,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4959,7 +4959,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.133343351119</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1182.133343351119</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5029,64 +5029,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004238</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436401</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937647</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769897</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>451.8971520785124</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
         <v>881.8088617745661</v>
@@ -5220,31 +5220,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176949</v>
       </c>
       <c r="T13" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755404</v>
       </c>
       <c r="U13" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V13" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.99330487894</v>
       </c>
       <c r="W13" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X13" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798644</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127519</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5275,55 +5275,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5427,19 +5427,19 @@
         <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I16" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
         <v>881.8088617745661</v>
@@ -5460,7 +5460,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
         <v>2700.681281130895</v>
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5512,55 +5512,55 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>380.3945678471333</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>380.3945678471333</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>1455.454534099993</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2612.502369310544</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="18">
@@ -5585,34 +5585,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5664,40 +5664,40 @@
         <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
         <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
         <v>2700.681281130895</v>
@@ -5731,49 +5731,49 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4294.449917128814</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>875.8255515988633</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>703.2638400820882</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>537.3858472836109</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6278435343481</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>190.9207894961043</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2623.749955382047</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2377.870508960502</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2099.437508213608</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1812.482000084038</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1540.45559567033</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1295.063841003742</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1067.64417031785</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
         <v>1654.847790009657</v>
@@ -5980,34 +5980,34 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>605.8694973157604</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1680.92946356862</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2837.977298779171</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3963.708282215618</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
         <v>4943.887948785924</v>
@@ -6022,16 +6022,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
         <v>2955.199618136697</v>
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6229,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7399,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1286.300469346937</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1286.300469346937</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2443.348304557488</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993935</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066122</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745733</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955486</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113131</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338912</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309254</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173586</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173586</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2594.704009018975</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>4552.836435941489</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4552.836435941489</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5099.335221900084</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707797</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707797</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066088</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8063,7 +8063,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="L5" t="n">
-        <v>72.805895586112</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368461</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>72.80589558610654</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742163</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.5472142772251</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671639</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238289</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>280.943159168034</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>170.8626916697543</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10366,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10904,13 +10904,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820602</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11308,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>13.84524407969548</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>124.3589898130745</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>143.6516710866791</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>3.146865729424327</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627218</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>84.63380825304858</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25836,10 +25836,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>34.67467827191847</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>102.9863699957308</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>502112.3729010291</v>
+        <v>502112.372901029</v>
       </c>
     </row>
     <row r="4">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514755.8788390235</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>514755.8788390235</v>
+        <v>514755.8788390234</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514755.8788390234</v>
+        <v>514755.8788390235</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041076</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="C2" t="n">
-        <v>469128.9049041074</v>
-      </c>
       <c r="D2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="E2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
-        <v>461000.3861201835</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201833</v>
@@ -26352,10 +26352,10 @@
         <v>461000.3861201833</v>
       </c>
       <c r="O2" t="n">
+        <v>461000.3861201833</v>
+      </c>
+      <c r="P2" t="n">
         <v>461000.3861201835</v>
-      </c>
-      <c r="P2" t="n">
-        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501632</v>
+        <v>66587.76789501538</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998265</v>
+        <v>11527.59554998353</v>
       </c>
       <c r="E3" t="n">
-        <v>182355.1092210497</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877264</v>
+        <v>53045.85463877189</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622216</v>
+        <v>9392.301726622933</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940153</v>
+        <v>154981.0317940159</v>
       </c>
       <c r="D4" t="n">
         <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="F4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962269</v>
       </c>
       <c r="G4" t="n">
+        <v>54561.82510962269</v>
+      </c>
+      <c r="H4" t="n">
+        <v>54561.82510962271</v>
+      </c>
+      <c r="I4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="H4" t="n">
-        <v>54561.82510962277</v>
-      </c>
-      <c r="I4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="J4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962278</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800262</v>
+        <v>71956.21380800245</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73816.1364560108</v>
+        <v>73816.13645601092</v>
       </c>
       <c r="C6" t="n">
-        <v>175603.8914070731</v>
+        <v>175603.8914070738</v>
       </c>
       <c r="D6" t="n">
-        <v>235378.590546578</v>
+        <v>235378.5905465771</v>
       </c>
       <c r="E6" t="n">
-        <v>146365.2131837184</v>
+        <v>146341.9888443356</v>
       </c>
       <c r="F6" t="n">
-        <v>328720.322404768</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="G6" t="n">
-        <v>328720.3224047682</v>
+        <v>328697.0980653855</v>
       </c>
       <c r="H6" t="n">
-        <v>328720.3224047681</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="I6" t="n">
-        <v>328720.3224047681</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="J6" t="n">
-        <v>217705.8570597779</v>
+        <v>217682.6327203952</v>
       </c>
       <c r="K6" t="n">
-        <v>275674.4677659955</v>
+        <v>275651.2434266135</v>
       </c>
       <c r="L6" t="n">
-        <v>319328.0206781459</v>
+        <v>319304.7963387625</v>
       </c>
       <c r="M6" t="n">
-        <v>176520.1514667805</v>
+        <v>176496.9271273977</v>
       </c>
       <c r="N6" t="n">
-        <v>328720.3224047681</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="O6" t="n">
-        <v>328720.3224047682</v>
+        <v>328697.0980653854</v>
       </c>
       <c r="P6" t="n">
-        <v>328720.3224047681</v>
+        <v>328697.0980653855</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684641</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939301</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="E4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939301</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="M4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483597</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939301</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="M4" t="n">
-        <v>610.745296776888</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>174.6820951421391</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>74.87600896501556</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>4.004162302114878</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>161.8479102624778</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>114.2728118504404</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>177.3690002828712</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>247.0043103439708</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.0112745882823</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>369.8422500230727</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.7232059832941</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28292,7 +28292,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.517996966951572e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.645518970125805e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.645518970125805e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30881,7 +30881,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34783,7 +34783,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>52.98895607821123</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684642</v>
+        <v>630.4048323684613</v>
       </c>
       <c r="L5" t="n">
-        <v>72.805895586112</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368461</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684642</v>
+        <v>72.80589558610654</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664742163</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,16 +35029,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684641</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368464</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>274.5472142772251</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671639</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821543</v>
+        <v>110.4038313238289</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>667.5152066078572</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9676668794093</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35345,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35588,7 +35588,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821552</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>280.943159168034</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>350.8506558504741</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36047,16 +36047,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645625</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>826.8607034446131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>170.862691669754</v>
@@ -36597,28 +36597,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37624,13 +37624,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>756.3484258820602</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37858,7 +37858,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37940,10 +37940,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924961037</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38028,19 +38028,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>13.84524407969548</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158824</v>
@@ -38177,19 +38177,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961003</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
